--- a/assets/PlantillaProyectoFinal.xlsx
+++ b/assets/PlantillaProyectoFinal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\ROMA SUPERMARKET\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A985C7D2-D6BF-43E4-A4C6-F2F68AF40377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70ABE63-F984-453C-9724-A27713BCC7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,154 +787,154 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="14">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>74</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>80</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>78</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>72</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>88</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>89</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="41">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>73</c:v>
-                </c:pt>
                 <c:pt idx="43">
-                  <c:v>81</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>68</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>86</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>81</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,25 +1397,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,25 +1437,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,25 +1570,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1610,25 +1610,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,25 +1743,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,25 +1783,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,6 +1881,179 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2420.4199999999983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2434.2899999999981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2428.889999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2470.1799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2460.0699999999988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2511.8599999999988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2263.4099999999985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC24-408C-BA0E-D3CDC9221629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>BalanceDiario!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1764.8899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1609.6999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1253.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1239.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1426.7399999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1473.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1266.9299999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC24-408C-BA0E-D3CDC9221629}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="409365071"/>
+        <c:axId val="409365551"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="409365071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="409365551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="409365551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="409365071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1916,25 +2089,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,25 +2129,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,25 +2262,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,25 +2302,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,25 +2435,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2302,25 +2475,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2435,25 +2608,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2475,25 +2648,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2608,25 +2781,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2648,25 +2821,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2781,25 +2954,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2821,25 +2994,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2954,25 +3127,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2994,25 +3167,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,25 +3300,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2431.1399999999981</c:v>
+                  <c:v>2420.4199999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2289.1799999999989</c:v>
+                  <c:v>2434.2899999999981</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2542.6299999999983</c:v>
+                  <c:v>2428.889999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2239.8999999999987</c:v>
+                  <c:v>2470.1799999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2459.619999999999</c:v>
+                  <c:v>2460.0699999999988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2275.0900000000015</c:v>
+                  <c:v>2511.8599999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2169.4899999999993</c:v>
+                  <c:v>2263.4099999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3167,25 +3340,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1695.43</c:v>
+                  <c:v>1764.8899999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1280.8299999999995</c:v>
+                  <c:v>1609.6999999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1389.7</c:v>
+                  <c:v>1253.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1380.4499999999998</c:v>
+                  <c:v>1239.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1259.9899999999998</c:v>
+                  <c:v>1426.7399999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338.7399999999998</c:v>
+                  <c:v>1473.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1072.3999999999994</c:v>
+                  <c:v>1266.9299999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3704,6 +3877,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D806D09-6D1B-8407-C0B2-8F150F0B6348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4841,7 +5050,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -4853,7 +5062,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B50" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -4865,7 +5074,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -4877,7 +5086,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <v>8428076006795</v>
@@ -4901,7 +5110,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -4937,7 +5146,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>8410300349129</v>
@@ -4949,7 +5158,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5">
         <v>8412200020504</v>
@@ -4961,7 +5170,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
         <v>8700216266628</v>
@@ -4973,7 +5182,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4">
         <v>8410172652525</v>
@@ -4985,7 +5194,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -5009,7 +5218,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -5021,7 +5230,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
         <v>8410022115828</v>
@@ -5033,7 +5242,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5">
         <v>3014260294625</v>
@@ -5045,7 +5254,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="5">
         <v>8720181029363</v>
@@ -5069,7 +5278,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -5093,7 +5302,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -5105,7 +5314,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <v>8410180225087</v>
@@ -5117,7 +5326,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4">
         <v>7622300281182</v>
@@ -5129,7 +5338,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="5">
         <v>8711327373105</v>
@@ -5141,7 +5350,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27" s="5">
         <v>7613035902985</v>
@@ -5153,7 +5362,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -5165,7 +5374,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -5177,7 +5386,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5">
         <v>8410297111150</v>
@@ -5189,7 +5398,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="5">
         <v>8412101026001</v>
@@ -5213,7 +5422,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5">
         <v>8720182381804</v>
@@ -5225,7 +5434,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="5">
         <v>8411327031127</v>
@@ -5237,7 +5446,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35" s="5">
         <v>8410500010614</v>
@@ -5261,7 +5470,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -5273,7 +5482,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38" s="4">
         <v>5029053038650</v>
@@ -5285,7 +5494,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -5297,7 +5506,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
         <v>4001724038870</v>
@@ -5309,7 +5518,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -5321,7 +5530,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" s="5">
         <v>8410762220059</v>
@@ -5333,7 +5542,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -5357,7 +5566,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" s="5">
         <v>8410320127363</v>
@@ -5393,7 +5602,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -5405,7 +5614,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -5429,7 +5638,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ref="B51" ca="1" si="1">RANDBETWEEN(0, 4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
@@ -5485,7 +5694,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -5497,7 +5706,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -5509,7 +5718,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -5521,7 +5730,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>8428076006795</v>
@@ -5533,7 +5742,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>8411547001085</v>
@@ -5545,7 +5754,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -5557,7 +5766,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <v>8412700130468</v>
@@ -5569,7 +5778,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="5">
         <v>8711000527474</v>
@@ -5581,7 +5790,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>8410300349129</v>
@@ -5593,7 +5802,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <v>8412200020504</v>
@@ -5605,7 +5814,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
         <v>8700216266628</v>
@@ -5617,7 +5826,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <v>8410172652525</v>
@@ -5629,7 +5838,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -5641,7 +5850,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5">
         <v>4005900704924</v>
@@ -5653,7 +5862,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -5689,7 +5898,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <v>8720181029363</v>
@@ -5701,7 +5910,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="5">
         <v>8410843060451</v>
@@ -5713,7 +5922,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -5725,7 +5934,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="5">
         <v>8700216460750</v>
@@ -5737,7 +5946,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -5749,7 +5958,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <v>8410180225087</v>
@@ -5761,7 +5970,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4">
         <v>7622300281182</v>
@@ -5785,7 +5994,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C27" s="5">
         <v>7613035902985</v>
@@ -5809,7 +6018,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -5821,7 +6030,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5">
         <v>8410297111150</v>
@@ -5833,7 +6042,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="5">
         <v>8412101026001</v>
@@ -5845,7 +6054,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3">
         <v>5052197040548</v>
@@ -5857,7 +6066,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C33" s="5">
         <v>8720182381804</v>
@@ -5893,7 +6102,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3">
         <v>7613035265271</v>
@@ -5905,7 +6114,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -5917,7 +6126,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4">
         <v>5029053038650</v>
@@ -5929,7 +6138,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -5941,7 +6150,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
         <v>4001724038870</v>
@@ -5953,7 +6162,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -5965,7 +6174,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="5">
         <v>8410762220059</v>
@@ -5977,7 +6186,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -5989,7 +6198,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" s="5">
         <v>5010677012744</v>
@@ -6013,7 +6222,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="5">
         <v>8410300101307</v>
@@ -6025,7 +6234,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="5">
         <v>8410300100492</v>
@@ -6049,7 +6258,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -6061,7 +6270,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" s="5">
         <v>7622202039133</v>
@@ -6073,7 +6282,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
@@ -6129,7 +6338,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -6141,7 +6350,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -6153,7 +6362,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -6165,7 +6374,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5">
         <v>8428076006795</v>
@@ -6177,7 +6386,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>8411547001085</v>
@@ -6189,7 +6398,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -6201,7 +6410,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4">
         <v>8412700130468</v>
@@ -6237,7 +6446,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5">
         <v>8412200020504</v>
@@ -6261,7 +6470,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4">
         <v>8410172652525</v>
@@ -6273,7 +6482,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -6297,7 +6506,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -6309,7 +6518,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>8410022115828</v>
@@ -6321,7 +6530,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5">
         <v>3014260294625</v>
@@ -6333,7 +6542,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5">
         <v>8720181029363</v>
@@ -6369,7 +6578,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5">
         <v>8700216460750</v>
@@ -6381,7 +6590,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -6393,7 +6602,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="4">
         <v>8410180225087</v>
@@ -6417,7 +6626,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="5">
         <v>8711327373105</v>
@@ -6429,7 +6638,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="5">
         <v>7613035902985</v>
@@ -6441,7 +6650,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -6453,7 +6662,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -6477,7 +6686,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5">
         <v>8412101026001</v>
@@ -6489,7 +6698,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3">
         <v>5052197040548</v>
@@ -6501,7 +6710,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="5">
         <v>8720182381804</v>
@@ -6513,7 +6722,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="5">
         <v>8411327031127</v>
@@ -6525,7 +6734,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="5">
         <v>8410500010614</v>
@@ -6537,7 +6746,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3">
         <v>7613035265271</v>
@@ -6549,7 +6758,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -6561,7 +6770,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C38" s="4">
         <v>5029053038650</v>
@@ -6573,7 +6782,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -6585,7 +6794,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="3">
         <v>4001724038870</v>
@@ -6621,7 +6830,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -6633,7 +6842,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" s="5">
         <v>5010677012744</v>
@@ -6645,7 +6854,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" s="5">
         <v>8410320127363</v>
@@ -6657,7 +6866,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C46" s="5">
         <v>8410300101307</v>
@@ -6669,7 +6878,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C47" s="5">
         <v>8410300100492</v>
@@ -6681,7 +6890,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -6693,7 +6902,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -6717,7 +6926,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
@@ -6774,7 +6983,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 4)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -6786,7 +6995,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -6798,7 +7007,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -6810,7 +7019,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5">
         <v>8428076006795</v>
@@ -6822,7 +7031,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>8411547001085</v>
@@ -6834,7 +7043,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -6846,7 +7055,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>8412700130468</v>
@@ -6858,7 +7067,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5">
         <v>8711000527474</v>
@@ -6870,7 +7079,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>8410300349129</v>
@@ -6906,7 +7115,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4">
         <v>8410172652525</v>
@@ -6930,7 +7139,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="5">
         <v>4005900704924</v>
@@ -6942,7 +7151,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -6954,7 +7163,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>8410022115828</v>
@@ -6990,7 +7199,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C20" s="5">
         <v>8410843060451</v>
@@ -7002,7 +7211,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -7014,7 +7223,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
         <v>8700216460750</v>
@@ -7026,7 +7235,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -7038,7 +7247,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C24" s="4">
         <v>8410180225087</v>
@@ -7050,7 +7259,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" s="4">
         <v>7622300281182</v>
@@ -7062,7 +7271,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="5">
         <v>8711327373105</v>
@@ -7074,7 +7283,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="5">
         <v>7613035902985</v>
@@ -7086,7 +7295,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -7098,7 +7307,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -7110,7 +7319,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="5">
         <v>8410297111150</v>
@@ -7146,7 +7355,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" s="5">
         <v>8720182381804</v>
@@ -7158,7 +7367,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" s="5">
         <v>8411327031127</v>
@@ -7170,7 +7379,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" s="5">
         <v>8410500010614</v>
@@ -7182,7 +7391,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
         <v>7613035265271</v>
@@ -7194,7 +7403,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -7218,7 +7427,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -7230,7 +7439,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3">
         <v>4001724038870</v>
@@ -7242,7 +7451,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -7254,7 +7463,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C42" s="5">
         <v>8410762220059</v>
@@ -7266,7 +7475,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -7278,7 +7487,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C44" s="5">
         <v>5010677012744</v>
@@ -7290,7 +7499,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="5">
         <v>8410320127363</v>
@@ -7302,7 +7511,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="5">
         <v>8410300101307</v>
@@ -7314,7 +7523,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C47" s="5">
         <v>8410300100492</v>
@@ -7326,7 +7535,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -7338,7 +7547,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -8046,7 +8255,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B2" s="28">
         <v>8720182381804</v>
@@ -8062,7 +8271,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="28">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B4" s="28">
         <v>8718951179042</v>
@@ -8070,7 +8279,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="28">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B5" s="28">
         <v>8711327373105</v>
@@ -8078,7 +8287,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="28">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="B6" s="28">
         <v>8711000527474</v>
@@ -8086,7 +8295,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="28">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B7" s="28">
         <v>8700216460750</v>
@@ -8094,7 +8303,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="28">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="B8" s="28">
         <v>8700216266628</v>
@@ -8102,7 +8311,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="28">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B9" s="28">
         <v>8428076006795</v>
@@ -8110,7 +8319,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="28">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B10" s="28">
         <v>8412700130468</v>
@@ -8118,7 +8327,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="28">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B11" s="28">
         <v>8412600028568</v>
@@ -8126,7 +8335,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="28">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="B12" s="28">
         <v>8412500910604</v>
@@ -8134,7 +8343,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="28">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B13" s="28">
         <v>8412200020504</v>
@@ -8142,7 +8351,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="28">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B14" s="28">
         <v>8412101026001</v>
@@ -8150,7 +8359,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="28">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B15" s="28">
         <v>8411547001085</v>
@@ -8158,7 +8367,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="28">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B16" s="28">
         <v>8411327031127</v>
@@ -8166,7 +8375,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="28">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B17" s="28">
         <v>8410843060451</v>
@@ -8174,7 +8383,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="28">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B18" s="28">
         <v>8410762220646</v>
@@ -8182,7 +8391,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="28">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B19" s="28">
         <v>8410762220059</v>
@@ -8190,7 +8399,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="28">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="28">
         <v>8410500029159</v>
@@ -8198,7 +8407,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="28">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B21" s="28">
         <v>8410500010614</v>
@@ -8206,7 +8415,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="28">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B22" s="28">
         <v>8410422111048</v>
@@ -8214,7 +8423,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="28">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="B23" s="28">
         <v>8410320398206</v>
@@ -8222,7 +8431,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="28">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B24" s="28">
         <v>8410320127363</v>
@@ -8230,7 +8439,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="28">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B25" s="28">
         <v>8410300349129</v>
@@ -8238,7 +8447,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="28">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B26" s="28">
         <v>8410300101307</v>
@@ -8246,7 +8455,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="28">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B27" s="28">
         <v>8410300100492</v>
@@ -8262,7 +8471,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="28">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B29" s="28">
         <v>8410180225087</v>
@@ -8270,7 +8479,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="28">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B30" s="28">
         <v>8410172652525</v>
@@ -8278,7 +8487,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="28">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B31" s="28">
         <v>8410069018939</v>
@@ -8286,7 +8495,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="28">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="28">
         <v>8410063088181</v>
@@ -8294,7 +8503,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="28">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B33" s="28">
         <v>8410022115828</v>
@@ -8302,7 +8511,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="28">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="28">
         <v>8410014477743</v>
@@ -8310,7 +8519,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="28">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B35" s="28">
         <v>8410010260042</v>
@@ -8318,7 +8527,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="28">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B36" s="28">
         <v>8001090370587</v>
@@ -8326,7 +8535,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="28">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B37" s="28">
         <v>7622300281182</v>
@@ -8334,7 +8543,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="28">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="28">
         <v>7622202039133</v>
@@ -8342,7 +8551,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="28">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B39" s="28">
         <v>7613287816825</v>
@@ -8350,7 +8559,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="28">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B40" s="28">
         <v>7613035902985</v>
@@ -8358,7 +8567,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="28">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B41" s="28">
         <v>7613035265271</v>
@@ -8366,7 +8575,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="28">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B42" s="28">
         <v>5059319024714</v>
@@ -8374,7 +8583,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="28">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B43" s="28">
         <v>5052197040548</v>
@@ -8382,7 +8591,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="28">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="28">
         <v>5029053038650</v>
@@ -8390,7 +8599,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="28">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" s="28">
         <v>5010677012744</v>
@@ -8398,7 +8607,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="28">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B46" s="28">
         <v>4015400804376</v>
@@ -8414,7 +8623,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="28">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B48" s="28">
         <v>4001724038870</v>
@@ -8422,7 +8631,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="28">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B49" s="28">
         <v>3600524146146</v>
@@ -8430,7 +8639,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="28">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B50" s="28">
         <v>3141360052005</v>
@@ -8438,7 +8647,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="28">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B51" s="28">
         <v>3014260294625</v>
@@ -8468,58 +8677,58 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>2431.1399999999981</v>
+        <v>2420.4199999999983</v>
       </c>
       <c r="B2">
-        <v>1695.43</v>
+        <v>1764.8899999999996</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2289.1799999999989</v>
+        <v>2434.2899999999981</v>
       </c>
       <c r="B3">
-        <v>1280.8299999999995</v>
+        <v>1609.6999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2542.6299999999983</v>
+        <v>2428.889999999999</v>
       </c>
       <c r="B4">
-        <v>1389.7</v>
+        <v>1253.07</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2239.8999999999987</v>
+        <v>2470.1799999999998</v>
       </c>
       <c r="B5">
-        <v>1380.4499999999998</v>
+        <v>1239.1499999999996</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2459.619999999999</v>
+        <v>2460.0699999999988</v>
       </c>
       <c r="B6">
-        <v>1259.9899999999998</v>
+        <v>1426.7399999999996</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2275.0900000000015</v>
+        <v>2511.8599999999988</v>
       </c>
       <c r="B7">
-        <v>1338.7399999999998</v>
+        <v>1473.1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2169.4899999999993</v>
+        <v>2263.4099999999985</v>
       </c>
       <c r="B8">
-        <v>1072.3999999999994</v>
+        <v>1266.9299999999996</v>
       </c>
     </row>
   </sheetData>
@@ -9847,7 +10056,7 @@
       </c>
       <c r="B2" s="13">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="21">
         <v>8718951179042</v>
@@ -9895,7 +10104,7 @@
       </c>
       <c r="B6" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="22">
         <v>8411547001085</v>
@@ -9907,7 +10116,7 @@
       </c>
       <c r="B7" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="21">
         <v>8410422111048</v>
@@ -9919,7 +10128,7 @@
       </c>
       <c r="B8" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="22">
         <v>8412700130468</v>
@@ -9931,7 +10140,7 @@
       </c>
       <c r="B9" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="21">
         <v>8711000527474</v>
@@ -9967,7 +10176,7 @@
       </c>
       <c r="B12" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="21">
         <v>8700216266628</v>
@@ -9979,7 +10188,7 @@
       </c>
       <c r="B13" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="22">
         <v>8410172652525</v>
@@ -10003,7 +10212,7 @@
       </c>
       <c r="B15" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" s="21">
         <v>4005900704924</v>
@@ -10015,7 +10224,7 @@
       </c>
       <c r="B16" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="23">
         <v>8410014477743</v>
@@ -10027,7 +10236,7 @@
       </c>
       <c r="B17" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="23">
         <v>8410022115828</v>
@@ -10039,7 +10248,7 @@
       </c>
       <c r="B18" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="21">
         <v>3014260294625</v>
@@ -10051,7 +10260,7 @@
       </c>
       <c r="B19" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="21">
         <v>8720181029363</v>
@@ -10063,7 +10272,7 @@
       </c>
       <c r="B20" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" s="21">
         <v>8410843060451</v>
@@ -10075,7 +10284,7 @@
       </c>
       <c r="B21" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" s="21">
         <v>7613287816825</v>
@@ -10087,7 +10296,7 @@
       </c>
       <c r="B22" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="21">
         <v>8700216460750</v>
@@ -10099,7 +10308,7 @@
       </c>
       <c r="B23" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="21">
         <v>8410063088181</v>
@@ -10111,7 +10320,7 @@
       </c>
       <c r="B24" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="22">
         <v>8410180225087</v>
@@ -10123,7 +10332,7 @@
       </c>
       <c r="B25" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="22">
         <v>7622300281182</v>
@@ -10135,7 +10344,7 @@
       </c>
       <c r="B26" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="21">
         <v>8711327373105</v>
@@ -10147,7 +10356,7 @@
       </c>
       <c r="B27" s="13">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" s="21">
         <v>7613035902985</v>
@@ -10159,7 +10368,7 @@
       </c>
       <c r="B28" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="21">
         <v>5059319024714</v>
@@ -10171,7 +10380,7 @@
       </c>
       <c r="B29" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C29" s="21">
         <v>8412500910604</v>
@@ -10183,7 +10392,7 @@
       </c>
       <c r="B30" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" s="21">
         <v>8410297111150</v>
@@ -10207,7 +10416,7 @@
       </c>
       <c r="B32" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="23">
         <v>5052197040548</v>
@@ -10219,7 +10428,7 @@
       </c>
       <c r="B33" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="21">
         <v>8720182381804</v>
@@ -10231,7 +10440,7 @@
       </c>
       <c r="B34" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="21">
         <v>8411327031127</v>
@@ -10243,7 +10452,7 @@
       </c>
       <c r="B35" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="21">
         <v>8410500010614</v>
@@ -10255,7 +10464,7 @@
       </c>
       <c r="B36" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C36" s="23">
         <v>7613035265271</v>
@@ -10279,7 +10488,7 @@
       </c>
       <c r="B38" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="22">
         <v>5029053038650</v>
@@ -10303,7 +10512,7 @@
       </c>
       <c r="B40" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="23">
         <v>4001724038870</v>
@@ -10315,7 +10524,7 @@
       </c>
       <c r="B41" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="21">
         <v>8410762220646</v>
@@ -10327,7 +10536,7 @@
       </c>
       <c r="B42" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C42" s="21">
         <v>8410762220059</v>
@@ -10339,7 +10548,7 @@
       </c>
       <c r="B43" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" s="21">
         <v>8410069018939</v>
@@ -10351,7 +10560,7 @@
       </c>
       <c r="B44" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C44" s="15">
         <v>5010677012744</v>
@@ -10363,7 +10572,7 @@
       </c>
       <c r="B45" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C45" s="15">
         <v>8410320127363</v>
@@ -10375,7 +10584,7 @@
       </c>
       <c r="B46" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C46" s="15">
         <v>8410300101307</v>
@@ -10387,7 +10596,7 @@
       </c>
       <c r="B47" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="15">
         <v>8410300100492</v>
@@ -10399,7 +10608,7 @@
       </c>
       <c r="B48" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C48" s="17">
         <v>4015400804376</v>
@@ -10411,7 +10620,7 @@
       </c>
       <c r="B49" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="15">
         <v>3600524146146</v>
@@ -10435,7 +10644,7 @@
       </c>
       <c r="B51" s="13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C51" s="15">
         <v>8410500029159</v>
@@ -10491,7 +10700,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -10503,7 +10712,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -10515,7 +10724,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -10539,7 +10748,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
         <v>8411547001085</v>
@@ -10551,7 +10760,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -10563,7 +10772,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4">
         <v>8412700130468</v>
@@ -10587,7 +10796,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>8410300349129</v>
@@ -10599,7 +10808,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5">
         <v>8412200020504</v>
@@ -10623,7 +10832,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <v>8410172652525</v>
@@ -10635,7 +10844,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -10647,7 +10856,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="5">
         <v>4005900704924</v>
@@ -10659,7 +10868,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -10671,7 +10880,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3">
         <v>8410022115828</v>
@@ -10695,7 +10904,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="5">
         <v>8720181029363</v>
@@ -10719,7 +10928,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -10731,7 +10940,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C22" s="5">
         <v>8700216460750</v>
@@ -10755,7 +10964,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <v>8410180225087</v>
@@ -10767,7 +10976,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4">
         <v>7622300281182</v>
@@ -10779,7 +10988,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" s="5">
         <v>8711327373105</v>
@@ -10803,7 +11012,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -10815,7 +11024,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -10827,7 +11036,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="5">
         <v>8410297111150</v>
@@ -10839,7 +11048,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="5">
         <v>8412101026001</v>
@@ -10863,7 +11072,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="5">
         <v>8720182381804</v>
@@ -10875,7 +11084,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="5">
         <v>8411327031127</v>
@@ -10887,7 +11096,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C35" s="5">
         <v>8410500010614</v>
@@ -10911,7 +11120,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -10935,7 +11144,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5">
         <v>8410320398206</v>
@@ -10947,7 +11156,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40" s="3">
         <v>4001724038870</v>
@@ -10959,7 +11168,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -10971,7 +11180,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C42" s="5">
         <v>8410762220059</v>
@@ -11007,7 +11216,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="5">
         <v>8410320127363</v>
@@ -11019,7 +11228,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="5">
         <v>8410300101307</v>
@@ -11031,7 +11240,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="5">
         <v>8410300100492</v>
@@ -11043,7 +11252,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -11055,7 +11264,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="5">
         <v>3600524146146</v>
@@ -11067,7 +11276,7 @@
       </c>
       <c r="B50" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C50" s="5">
         <v>7622202039133</v>
@@ -11079,7 +11288,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
@@ -11135,7 +11344,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RANDBETWEEN(0, 3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5">
         <v>8718951179042</v>
@@ -11147,7 +11356,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B51" ca="1" si="0">RANDBETWEEN(0, 3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>3141360052005</v>
@@ -11159,7 +11368,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
         <v>8410010260042</v>
@@ -11183,7 +11392,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <v>8411547001085</v>
@@ -11195,7 +11404,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>8410422111048</v>
@@ -11219,7 +11428,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="5">
         <v>8711000527474</v>
@@ -11231,7 +11440,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <v>8410300349129</v>
@@ -11255,7 +11464,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="5">
         <v>8700216266628</v>
@@ -11279,7 +11488,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="5">
         <v>8001090370587</v>
@@ -11291,7 +11500,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="5">
         <v>4005900704924</v>
@@ -11303,7 +11512,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
         <v>8410014477743</v>
@@ -11339,7 +11548,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="5">
         <v>8720181029363</v>
@@ -11351,7 +11560,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
         <v>8410843060451</v>
@@ -11363,7 +11572,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="5">
         <v>7613287816825</v>
@@ -11375,7 +11584,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C22" s="5">
         <v>8700216460750</v>
@@ -11387,7 +11596,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" s="5">
         <v>8410063088181</v>
@@ -11399,7 +11608,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <v>8410180225087</v>
@@ -11423,7 +11632,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="5">
         <v>8711327373105</v>
@@ -11447,7 +11656,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="5">
         <v>5059319024714</v>
@@ -11459,7 +11668,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="5">
         <v>8412500910604</v>
@@ -11483,7 +11692,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C31" s="5">
         <v>8412101026001</v>
@@ -11495,7 +11704,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
         <v>5052197040548</v>
@@ -11507,7 +11716,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="5">
         <v>8720182381804</v>
@@ -11519,7 +11728,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="5">
         <v>8411327031127</v>
@@ -11531,7 +11740,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35" s="5">
         <v>8410500010614</v>
@@ -11543,7 +11752,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="3">
         <v>7613035265271</v>
@@ -11555,7 +11764,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3">
         <v>8412600028568</v>
@@ -11591,7 +11800,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="3">
         <v>4001724038870</v>
@@ -11603,7 +11812,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C41" s="5">
         <v>8410762220646</v>
@@ -11615,7 +11824,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" s="5">
         <v>8410762220059</v>
@@ -11627,7 +11836,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" s="5">
         <v>8410069018939</v>
@@ -11639,7 +11848,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C44" s="5">
         <v>5010677012744</v>
@@ -11651,7 +11860,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C45" s="5">
         <v>8410320127363</v>
@@ -11687,7 +11896,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" s="4">
         <v>4015400804376</v>
@@ -11711,7 +11920,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C50" s="5">
         <v>7622202039133</v>
@@ -11723,7 +11932,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="5">
         <v>8410500029159</v>
